--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,22 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>جليد مالتي سبراي سحر الشرق - 460 مل</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
+  </si>
+  <si>
+    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
+  </si>
+  <si>
+    <t>كوكاكولا اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +444,104 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>22087</v>
+        <v>2805</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>495</v>
+        <v>332</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>22087</v>
+        <v>3334</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>169.75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6935</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>105</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6936</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>41.25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>12923</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>791.75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20927</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>365.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,22 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مسحوق غسيل فل ازرق يدوى - 9 كجم</t>
-  </si>
-  <si>
-    <t>مسحوق غسيل فل يدوى ابيض - 9 كجم</t>
-  </si>
-  <si>
-    <t>كوكاكولا اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>سبرايت اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>اندومي سوبر مى خضار حارجامبو عرض 44 كيس - 100 جم</t>
+    <t>مكرونة كايرو اسباجتى - 400 جم</t>
+  </si>
+  <si>
+    <t>ميمكس جيليكس - 255 جرام</t>
   </si>
   <si>
     <t>YES</t>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,104 +432,53 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2805</v>
+        <v>5851</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>332</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3334</v>
+        <v>11870</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>169.75</v>
+        <v>600</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>6935</v>
+        <v>11870</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>105</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>6936</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>12923</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>791.75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>20927</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>365.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مكرونة كايرو اسباجتى - 400 جم</t>
-  </si>
-  <si>
-    <t>ميمكس جيليكس - 255 جرام</t>
+    <t>شويبس رمان - 300 مل</t>
+  </si>
+  <si>
+    <t>مناديل فاميليا سحب 2 طبقة - 650 منديل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,16 +432,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5851</v>
+        <v>1654</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -449,35 +449,18 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>11870</v>
+        <v>11583</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>11870</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس رمان - 300 مل</t>
-  </si>
-  <si>
-    <t>مناديل فاميليا سحب 2 طبقة - 650 منديل</t>
+    <t>مناديل فاميليا سحب 2 طبقة - 500 منديل</t>
+  </si>
+  <si>
+    <t>رويال أعشاب نعناع - 20 فتلة</t>
+  </si>
+  <si>
+    <t>ميمكس جيليكس - 255 جرام</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1654</v>
+        <v>1700</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,27 +444,78 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>325</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>11583</v>
+        <v>3976</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>543</v>
+        <v>17.75</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3976</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1278</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>11870</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>600</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>11870</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مناديل فاميليا سحب 2 طبقة - 500 منديل</t>
-  </si>
-  <si>
-    <t>رويال أعشاب نعناع - 20 فتلة</t>
-  </si>
-  <si>
-    <t>ميمكس جيليكس - 255 جرام</t>
+    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1700</v>
+        <v>11039</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -444,78 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3976</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>17.75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3976</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1278</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>11870</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>600</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>11870</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,34 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
+    <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 2.45 لتر</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 2 كجم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 2 كجم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
+  </si>
+  <si>
+    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 1 لتر</t>
+  </si>
+  <si>
+    <t>زيت ثمرات خليط - 550 مل</t>
+  </si>
+  <si>
+    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +456,223 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11039</v>
+        <v>947</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>59.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>947</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>714</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>947</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2856</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>947</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1428</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2778</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>290</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D6">
+        <v>205</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>9124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>450</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>9126</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>428.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11180</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>339</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11403</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>339.75</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>12923</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>776.75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>12925</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>487.5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21687</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>26.75</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21687</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>321</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,34 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة دولفين قطعة واحدة بارد - 200 جم</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 2.45 لتر</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى لافندر - 2 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 2 كجم</t>
-  </si>
-  <si>
-    <t>اوكسى يدوى نسيم الشرق - 1 كجم</t>
-  </si>
-  <si>
-    <t>سمنة حبوبة نباتى صفراء - 300 جم</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 1 لتر</t>
-  </si>
-  <si>
-    <t>زيت ثمرات خليط - 550 مل</t>
-  </si>
-  <si>
-    <t>فينجرز شيكولاتة بيضاء - 5 جنية</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 310 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -425,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,223 +435,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>947</v>
+        <v>2336</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>59.5</v>
+        <v>49.5</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>947</v>
+        <v>2336</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>714</v>
+        <v>1188</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>947</v>
+        <v>11813</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2856</v>
+        <v>107.75</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>947</v>
+        <v>11814</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1428</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2778</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>205</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>9124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>450</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>9126</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>428.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>11180</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>339</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>11403</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>339.75</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>12923</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>776.75</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>12925</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>487.5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>21687</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>26.75</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>21687</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>321</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بسكويت ماندولين بالشوكولاتة و الكراميل 5 جنيه - 17 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
-  </si>
-  <si>
-    <t>مسحوق باهى يدوى لافندر - 310 جم</t>
+    <t>عدس حبوبة اصفر - 500 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,70 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2336</v>
+        <v>2322</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>49.5</v>
+        <v>286.25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1188</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>11813</v>
-      </c>
-      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>107.75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>11814</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عدس حبوبة اصفر - 500 جم</t>
+    <t>كوكا كولا - 2.45 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2322</v>
+        <v>2778</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>286.25</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,79 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكا كولا - 2.45 لتر</t>
+    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 لافندر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
+  </si>
+  <si>
+    <t>كلوروكس باودر - 250 جم</t>
+  </si>
+  <si>
+    <t>كلوركس جل نعناع - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 ليمون - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
+  </si>
+  <si>
+    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل زهور - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس الوان - 750 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف ليمون - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل+ منظف زهور - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس جل + منظف نعناع  - 400 مل</t>
+  </si>
+  <si>
+    <t>كلوركس ابيض لافندر - 4 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +501,427 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2778</v>
+        <v>382</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>387</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2655</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>203</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2658</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>378.25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2661</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>378.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>2663</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>508</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2664</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>508</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2666</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>735</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2669</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>509</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>2670</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>447</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2673</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>507</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>3386</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>323</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>3390</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>267</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>3392</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>618</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>3393</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>203</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>3394</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>203</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3395</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>375</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3396</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>376.25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>507</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>6946</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>509</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>10254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>475</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>23904</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>305</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23905</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>305</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>23906</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>305</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>23908</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>211</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,79 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوريتا  كلور حجم جديد - 1 كجم</t>
-  </si>
-  <si>
-    <t>كلوركس كلور - 1.2 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون اصفر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون باوش - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1  لافندر باوش - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 لافندر - 3 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر - 3 لتر</t>
-  </si>
-  <si>
-    <t>كلوروكس باودر - 250 جم</t>
-  </si>
-  <si>
-    <t>كلوركس جل نعناع - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس متعدد الاستخدامات - 1 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 ليمون - 700 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور ابيض ليمون اصفر - 950 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان برائحة الزهور - 475 مل</t>
-  </si>
-  <si>
-    <t>كلوركس كلور الوان برائحة الزهور - 2 لتر</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر باوش - 200 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نعناع اخضر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس 5*1 نسيم البحر ازرق - 700 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل زهور - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس الوان - 750 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل + منظف ليمون - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل+ منظف زهور - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس جل + منظف نعناع  - 400 مل</t>
-  </si>
-  <si>
-    <t>كلوركس ابيض لافندر - 4 لتر</t>
+    <t>تونة دولفين مفتتة حار - 140 جم</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>YES</t>
@@ -470,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,427 +432,70 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>382</v>
+        <v>1414</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>385</v>
+        <v>1414</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2655</v>
+        <v>1414</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>203</v>
+        <v>1200</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2658</v>
+        <v>1414</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>378.25</v>
+        <v>600</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2661</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>378.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2663</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>508</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>2664</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>508</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>2666</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>735</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>2669</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>509</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>2670</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>447</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>2673</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>507</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>3386</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>323</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>3390</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>267</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>3392</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>618</v>
-      </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>3393</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>203</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>3394</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>203</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>3395</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>375</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>3396</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>376.25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>3399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>507</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>6946</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>509</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>10254</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>475</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>23904</v>
-      </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>305</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23905</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>305</v>
-      </c>
-      <c r="E24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25">
-        <v>23906</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>305</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>23908</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>211</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>تونة دولفين مفتتة حار - 140 جم</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,69 +432,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1414</v>
+        <v>2327</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>205.75</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1414</v>
+        <v>11039</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>289.5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1414</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1200</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1414</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>600</v>
-      </c>
-      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,16 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>شويبس جولد اناناس - 1.75 لتر</t>
-  </si>
-  <si>
-    <t>تويست مشروب طاقة -اوريجنال 250 مل</t>
+    <t>كلوريل كلور - 1050 جم</t>
+  </si>
+  <si>
+    <t>كوكا كولا - 0.95 لتر</t>
+  </si>
+  <si>
+    <t>سبرايت اكشن - 300 مل</t>
+  </si>
+  <si>
+    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,24 +438,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>2327</v>
+        <v>1277</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>205.75</v>
+        <v>156</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>11039</v>
+        <v>3670</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -458,10 +464,44 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>289.5</v>
+        <v>132.25</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6936</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>10897</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>84.75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,16 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كلوريل كلور - 1050 جم</t>
-  </si>
-  <si>
-    <t>كوكا كولا - 0.95 لتر</t>
-  </si>
-  <si>
     <t>سبرايت اكشن - 300 مل</t>
   </si>
   <si>
-    <t>مسحوق ليدر عادى لافندر - 65 جم</t>
+    <t>شويبس خوخ بلاستيك - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -407,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,24 +432,24 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1277</v>
+        <v>6936</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>3670</v>
+        <v>11684</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -464,44 +458,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>132.25</v>
+        <v>111.5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>6936</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>109</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>10897</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>84.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,19 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>سبرايت اكشن - 300 مل</t>
-  </si>
-  <si>
-    <t>شويبس خوخ بلاستيك - 250 مل</t>
+    <t>لبن بخيره - 1 لتر</t>
+  </si>
+  <si>
+    <t>طحينة البوادى - 125 جم</t>
+  </si>
+  <si>
+    <t>بيبسى كانز ستار زيادة %10- 355 مل</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,36 +438,104 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6936</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>438.25</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>11684</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1080</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>540</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>270</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>25899</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>111.5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+      <c r="D7">
+        <v>329.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Pricing Logic/modules/uploads/module_4_702.xlsx
+++ b/Pricing Logic/modules/uploads/module_4_702.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,19 +37,49 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن بخيره - 1 لتر</t>
-  </si>
-  <si>
-    <t>طحينة البوادى - 125 جم</t>
-  </si>
-  <si>
-    <t>بيبسى كانز ستار زيادة %10- 355 مل</t>
+    <t>لبن جهينة كامل الدسم - 1 لتر</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع - 950 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 300 مل</t>
+  </si>
+  <si>
+    <t>شويبس جولد اناناس - 1.75 لتر</t>
+  </si>
+  <si>
+    <t>شويبس ليمون نعناع جيب - 240 مل</t>
+  </si>
+  <si>
+    <t>شويبس رمان - 950 مل</t>
+  </si>
+  <si>
+    <t>سبيرو سباتيس صودا ليمون - 330 مل</t>
+  </si>
+  <si>
+    <t>سبيرو سباتيس يوسفي - 330 مل</t>
+  </si>
+  <si>
+    <t>سبيرو سباتيس اناناس - 330 مل</t>
+  </si>
+  <si>
+    <t>شويبس يوسفى بلاستيك - 250 مل</t>
+  </si>
+  <si>
+    <t>سبيرو سباتس كولا - 330 جم</t>
+  </si>
+  <si>
+    <t>سبيرو سباتس كانز يوسفى - 330 مل</t>
+  </si>
+  <si>
+    <t>سبيرو سباتس كانز كولا - 330 مل</t>
+  </si>
+  <si>
+    <t>سبيرو سباتس كانز ليمون ليمون صودا- 330 مل</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -407,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,7 +468,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -447,95 +477,231 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>438.25</v>
+        <v>540</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1080</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>336</v>
+        <v>1656</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>336</v>
+        <v>2327</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>540</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>336</v>
+        <v>5490</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>25899</v>
+        <v>8650</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>329.5</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>9965</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9967</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9971</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>11682</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>13893</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>109</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>24131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>24132</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>309</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>24134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>309</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
